--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>BSL NO</t>
   </si>
@@ -67,10 +67,13 @@
     <t>Osticare</t>
   </si>
   <si>
+    <t>Quinox</t>
+  </si>
+  <si>
     <t>Rupaday</t>
   </si>
   <si>
-    <t>Sk-Mox</t>
+    <t>Volmax</t>
   </si>
   <si>
     <t>Zithrox</t>
@@ -79,24 +82,24 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
@@ -112,24 +115,24 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -139,18 +142,21 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule</t>
+    <t>Volmax SR 100mg Capsule</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
@@ -184,18 +190,18 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,13 +211,10 @@
     <t>1's</t>
   </si>
   <si>
-    <t>48 's</t>
+    <t>6 's</t>
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
   <si>
     <t>30ml</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -626,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -643,10 +646,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -657,13 +660,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -674,13 +677,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -691,13 +694,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -711,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
@@ -728,10 +731,10 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -742,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -759,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -776,13 +779,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -796,10 +799,10 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -813,10 +816,10 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -827,13 +830,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -844,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -864,10 +867,10 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -881,10 +884,10 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -898,10 +901,10 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -912,13 +915,13 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -929,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -949,61 +952,61 @@
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1011,13 +1014,13 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>65</v>
@@ -1028,13 +1031,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -1045,16 +1048,33 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>BSL NO</t>
   </si>
@@ -73,55 +73,55 @@
     <t>Rupaday</t>
   </si>
   <si>
-    <t>Volmax</t>
-  </si>
-  <si>
     <t>Zithrox</t>
   </si>
   <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
@@ -130,9 +130,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -148,21 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
-    <t>Volmax SR 100mg Capsule</t>
+    <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
+    <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -172,30 +166,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -211,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
-    <t>15 ml</t>
+    <t>6's</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -578,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -626,13 +620,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -643,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -660,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -677,13 +671,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -694,13 +688,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -714,10 +708,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -731,10 +725,10 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -748,10 +742,10 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -762,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -779,13 +773,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -799,10 +793,10 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -816,10 +810,10 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -833,10 +827,10 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -847,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -867,10 +861,10 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -884,10 +878,10 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -901,10 +895,10 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -915,13 +909,13 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -932,13 +926,13 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -949,13 +943,13 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -966,13 +960,13 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -983,30 +977,30 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1014,16 +1008,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1031,16 +1025,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1048,33 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -79,54 +79,54 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -211,10 +211,10 @@
     <t>6 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -688,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -705,13 +705,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -728,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -830,7 +830,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -841,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -864,7 +864,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -881,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -915,7 +915,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -926,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -943,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
@@ -960,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="C25">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -1011,7 +1011,7 @@
         <v>19</v>
       </c>
       <c r="C26">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -1028,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -79,57 +79,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,30 +166,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -688,13 +688,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -705,13 +705,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -722,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -790,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -807,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -824,13 +824,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -841,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -858,7 +858,7 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -875,13 +875,13 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -892,13 +892,13 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -909,13 +909,13 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -926,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -943,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
@@ -960,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -977,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="C25">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -1011,7 +1011,7 @@
         <v>19</v>
       </c>
       <c r="C26">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -1028,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
@@ -1045,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>BSL NO</t>
   </si>
@@ -79,57 +79,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol TR 200mg Capsule</t>
+  </si>
+  <si>
+    <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -139,24 +139,24 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
-    <t>Quinox 100ml IV Infusion</t>
+    <t>Quinox 750mg Tablet</t>
   </si>
   <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,55 +166,58 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
     <t>24's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>1's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -711,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -864,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -881,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -898,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -915,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -983,7 +986,7 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1000,7 +1003,7 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1017,7 +1020,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1034,7 +1037,7 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1051,7 +1054,7 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -91,45 +91,45 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
+    <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,21 +166,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>60 's</t>
+  </si>
+  <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -208,16 +208,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
-    <t>6 's</t>
+    <t>30ml</t>
   </si>
   <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -833,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -867,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -884,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -79,27 +79,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -208,16 +208,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>BSL NO</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Kynol</t>
   </si>
   <si>
+    <t>Levomax</t>
+  </si>
+  <si>
     <t>Naprox</t>
   </si>
   <si>
@@ -67,60 +70,60 @@
     <t>Osticare</t>
   </si>
   <si>
-    <t>Quinox</t>
-  </si>
-  <si>
     <t>Rupaday</t>
   </si>
   <si>
+    <t>Sk-Mox</t>
+  </si>
+  <si>
     <t>Zithrox</t>
   </si>
   <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
+    <t>Levomax 750mg Tablet - 10's</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -139,24 +145,24 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,58 +172,61 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>40 's</t>
   </si>
   <si>
     <t>24's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>1's</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>6's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -626,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -643,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -660,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -677,10 +686,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -694,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -711,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -728,10 +737,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -745,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -762,10 +771,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -779,10 +788,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -796,10 +805,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -813,10 +822,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -830,10 +839,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -847,10 +856,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -864,10 +873,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -881,10 +890,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -898,15 +907,15 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -915,15 +924,15 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -932,15 +941,15 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -949,15 +958,15 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -966,10 +975,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -983,15 +992,15 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1000,10 +1009,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1011,16 +1020,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1028,16 +1037,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1045,16 +1054,33 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -82,46 +82,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol TR 100mg Capsule</t>
@@ -130,9 +133,6 @@
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
@@ -151,18 +151,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -172,21 +172,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -217,16 +217,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -740,7 +740,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -842,7 +842,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -859,7 +859,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -876,7 +876,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -893,7 +893,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -910,7 +910,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -944,7 +944,7 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>BSL NO</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Kynol</t>
   </si>
   <si>
-    <t>Levomax</t>
-  </si>
-  <si>
     <t>Naprox</t>
   </si>
   <si>
@@ -82,48 +79,48 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Levomax 750mg Tablet - 10's</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -151,18 +145,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -172,39 +166,36 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -217,16 +208,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -584,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -635,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -652,10 +643,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -669,10 +660,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -686,10 +677,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -703,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -720,10 +711,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -737,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -754,10 +745,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -771,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -788,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -805,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -822,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -839,10 +830,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -856,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -873,10 +864,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -890,10 +881,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -907,15 +898,15 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -924,15 +915,15 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -941,15 +932,15 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -958,15 +949,15 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -975,15 +966,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -992,15 +983,15 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1009,10 +1000,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1020,16 +1011,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1037,16 +1028,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1054,33 +1045,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -91,34 +91,37 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
@@ -127,9 +130,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,36 +166,36 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -208,16 +208,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -714,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -833,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -850,7 +850,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -867,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -884,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -79,57 +79,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,21 +166,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -211,13 +211,13 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -833,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -850,7 +850,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -884,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>BSL NO</t>
   </si>
@@ -70,36 +70,33 @@
     <t>Rupaday</t>
   </si>
   <si>
-    <t>Sk-Mox</t>
-  </si>
-  <si>
     <t>Zithrox</t>
   </si>
   <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -112,13 +109,16 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
@@ -127,9 +127,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -142,15 +139,12 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule</t>
+    <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
@@ -166,12 +160,12 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -184,12 +178,12 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -205,13 +199,10 @@
     <t>1's</t>
   </si>
   <si>
-    <t>48 's</t>
+    <t>6's</t>
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
   <si>
     <t>6 's</t>
@@ -575,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -626,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -643,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -660,10 +651,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -677,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -694,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -711,10 +702,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -728,10 +719,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -745,10 +736,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -762,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -779,10 +770,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -796,10 +787,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -813,10 +804,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -830,10 +821,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -847,10 +838,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -864,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -881,10 +872,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -898,10 +889,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -915,10 +906,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -932,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -949,10 +940,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -966,15 +957,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -983,10 +974,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -994,16 +985,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1011,16 +1002,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1028,33 +1019,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>BSL NO</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Kynol</t>
   </si>
   <si>
+    <t>Lindamax</t>
+  </si>
+  <si>
     <t>Naprox</t>
   </si>
   <si>
@@ -67,36 +70,42 @@
     <t>Osticare</t>
   </si>
   <si>
+    <t>Quinox</t>
+  </si>
+  <si>
     <t>Rupaday</t>
   </si>
   <si>
+    <t>Sk-Mox</t>
+  </si>
+  <si>
     <t>Zithrox</t>
   </si>
   <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -112,19 +121,22 @@
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
+    <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
@@ -136,21 +148,27 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -160,12 +178,12 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -184,12 +202,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -199,16 +217,19 @@
     <t>1's</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -566,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +655,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +689,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +774,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +808,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +825,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,10 +842,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -838,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
@@ -855,10 +876,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -872,10 +893,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -889,15 +910,15 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -906,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -914,7 +935,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -923,7 +944,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
@@ -931,7 +952,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -940,15 +961,15 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -957,15 +978,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -974,44 +995,44 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1019,16 +1040,67 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>BSL NO</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Kynol</t>
   </si>
   <si>
-    <t>Lindamax</t>
-  </si>
-  <si>
     <t>Naprox</t>
   </si>
   <si>
@@ -70,63 +67,57 @@
     <t>Osticare</t>
   </si>
   <si>
-    <t>Quinox</t>
-  </si>
-  <si>
     <t>Rupaday</t>
   </si>
   <si>
-    <t>Sk-Mox</t>
-  </si>
-  <si>
     <t>Zithrox</t>
   </si>
   <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -148,27 +136,21 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule</t>
+    <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
+    <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -178,30 +160,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -217,19 +199,16 @@
     <t>1's</t>
   </si>
   <si>
-    <t>48 's</t>
+    <t>30ml</t>
   </si>
   <si>
     <t>6 's</t>
   </si>
   <si>
-    <t>30ml</t>
+    <t>15 ml</t>
   </si>
   <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -587,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -638,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -655,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,10 +651,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -689,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -706,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -723,10 +702,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -740,10 +719,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -757,10 +736,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -774,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -791,10 +770,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -808,10 +787,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -825,10 +804,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -842,10 +821,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -859,7 +838,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
@@ -876,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -893,10 +872,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -910,15 +889,15 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -927,15 +906,15 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -944,7 +923,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
@@ -952,7 +931,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -961,15 +940,15 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -978,15 +957,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -995,44 +974,44 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1040,67 +1019,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>BSL NO</t>
   </si>
@@ -70,52 +70,58 @@
     <t>Rupaday</t>
   </si>
   <si>
+    <t>Sk-Mox</t>
+  </si>
+  <si>
     <t>Zithrox</t>
   </si>
   <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
@@ -124,9 +130,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -139,18 +142,21 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -169,27 +175,27 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -199,16 +205,19 @@
     <t>1's</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +643,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +660,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +677,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -702,10 +711,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +745,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,10 +830,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -838,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -855,10 +864,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -872,10 +881,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -889,10 +898,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -906,10 +915,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -923,10 +932,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -940,10 +949,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -957,15 +966,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -974,10 +983,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -985,16 +994,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1002,16 +1011,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1019,16 +1028,33 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -79,54 +79,54 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -175,21 +175,21 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -211,13 +211,13 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -714,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -816,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -833,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -867,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -884,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,6 +31,9 @@
     <t>UOM</t>
   </si>
   <si>
+    <t>Biltin</t>
+  </si>
+  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -76,30 +79,33 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Biltin 20mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -112,15 +118,15 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -157,12 +163,12 @@
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>60 ml</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
@@ -184,10 +190,10 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
-  </si>
-  <si>
-    <t>5 's</t>
   </si>
   <si>
     <t>60 's</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -609,15 +615,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -626,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -637,16 +643,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -654,21 +660,21 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -677,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -685,7 +691,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -694,10 +700,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -705,16 +711,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -722,21 +728,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -745,15 +751,15 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -762,10 +768,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -773,21 +779,21 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -796,15 +802,15 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -813,10 +819,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -824,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -841,21 +847,21 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -864,10 +870,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -875,16 +881,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -892,21 +898,21 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -915,15 +921,15 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -932,15 +938,15 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -949,15 +955,15 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -966,15 +972,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -983,15 +989,15 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1000,10 +1006,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1011,16 +1017,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1028,16 +1034,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1045,16 +1051,33 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,9 +31,6 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>Biltin</t>
-  </si>
-  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
     <t>Kynol</t>
   </si>
   <si>
+    <t>Levomax</t>
+  </si>
+  <si>
     <t>Naprox</t>
   </si>
   <si>
@@ -70,6 +70,9 @@
     <t>Osticare</t>
   </si>
   <si>
+    <t>Quinox</t>
+  </si>
+  <si>
     <t>Rupaday</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>Zithrox</t>
   </si>
   <si>
-    <t>Biltin 20mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
@@ -97,15 +97,15 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -136,6 +136,9 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
+    <t>Levomax 750mg Tablet - 10's</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,39 +148,42 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
+    <t>60 ml</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
-    <t>60 ml</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>50 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -214,16 +223,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -581,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +615,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -615,15 +624,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -632,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -643,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -660,21 +669,21 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -683,15 +692,15 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -700,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -711,16 +720,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -728,13 +737,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>52</v>
@@ -742,7 +751,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -751,15 +760,15 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -768,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -779,21 +788,21 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -802,15 +811,15 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -819,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -830,16 +839,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -847,21 +856,21 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -870,10 +879,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -881,16 +890,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -898,21 +907,21 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -921,10 +930,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -938,10 +947,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -955,10 +964,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -972,15 +981,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -989,15 +998,15 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1006,15 +1015,15 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1023,10 +1032,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1034,16 +1043,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1051,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1068,16 +1077,33 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>BSL NO</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Kynol</t>
   </si>
   <si>
-    <t>Levomax</t>
-  </si>
-  <si>
     <t>Naprox</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Osticare</t>
   </si>
   <si>
-    <t>Quinox</t>
-  </si>
-  <si>
     <t>Rupaday</t>
   </si>
   <si>
@@ -97,24 +91,24 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
@@ -127,18 +121,15 @@
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Levomax 750mg Tablet - 10's</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -148,27 +139,24 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -178,21 +166,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -202,15 +190,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -223,16 +208,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -590,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -641,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -658,10 +643,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -675,10 +660,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -692,10 +677,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -709,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -726,10 +711,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -743,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -760,10 +745,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -777,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -794,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -811,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -828,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -845,10 +830,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -862,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -879,10 +864,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -896,10 +881,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -913,15 +898,15 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -930,15 +915,15 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -947,15 +932,15 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -964,15 +949,15 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -981,15 +966,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -998,15 +983,15 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1015,27 +1000,27 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1043,16 +1028,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1060,50 +1045,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,9 +31,6 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>Biltin</t>
-  </si>
-  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -79,60 +76,57 @@
     <t>Zithrox</t>
   </si>
   <si>
-    <t>Biltin 20mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -154,21 +148,21 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
+    <t>60 ml</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>60 ml</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
@@ -181,12 +175,12 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -217,10 +211,10 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
   <si>
     <t>6's</t>
@@ -581,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +600,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -615,15 +609,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -632,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -643,16 +637,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -660,21 +654,21 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -683,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -691,7 +685,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -700,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -711,16 +705,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -728,21 +722,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -751,15 +745,15 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -768,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -779,21 +773,21 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -802,15 +796,15 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -819,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -830,16 +824,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -847,21 +841,21 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -870,10 +864,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -881,16 +875,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -898,21 +892,21 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -921,15 +915,15 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -938,15 +932,15 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -955,15 +949,15 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -972,15 +966,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -989,15 +983,15 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1006,10 +1000,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1017,16 +1011,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1034,16 +1028,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1051,33 +1045,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>BSL NO</t>
   </si>
@@ -67,24 +67,24 @@
     <t>Osticare</t>
   </si>
   <si>
+    <t>Quinox</t>
+  </si>
+  <si>
     <t>Rupaday</t>
   </si>
   <si>
-    <t>Sk-Mox</t>
-  </si>
-  <si>
     <t>Zithrox</t>
   </si>
   <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
@@ -103,33 +103,33 @@
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule</t>
-  </si>
-  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
@@ -175,27 +175,27 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
+    <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>1's</t>
-  </si>
-  <si>
-    <t>48 's</t>
   </si>
   <si>
     <t>15 ml</t>
@@ -816,7 +813,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -833,7 +830,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -850,7 +847,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -884,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -918,7 +915,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -957,7 +954,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -986,7 +983,7 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1003,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1020,7 +1017,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1037,7 +1034,7 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1054,7 +1051,7 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,190 +31,106 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>Desodin</t>
-  </si>
-  <si>
-    <t>Dinafex</t>
-  </si>
-  <si>
-    <t>Dorenta</t>
-  </si>
-  <si>
-    <t>Etorix</t>
-  </si>
-  <si>
-    <t>Fenobac</t>
-  </si>
-  <si>
-    <t>Flucloxin</t>
-  </si>
-  <si>
-    <t>Geminox</t>
-  </si>
-  <si>
-    <t>Ketonic</t>
-  </si>
-  <si>
-    <t>Kynol</t>
-  </si>
-  <si>
-    <t>Naprox</t>
-  </si>
-  <si>
-    <t>Oradin</t>
-  </si>
-  <si>
-    <t>Osticare</t>
-  </si>
-  <si>
-    <t>Quinox</t>
-  </si>
-  <si>
-    <t>Rupaday</t>
-  </si>
-  <si>
-    <t>Zithrox</t>
-  </si>
-  <si>
-    <t>Desodin 60ml Syrup</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dorenta 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Fenobac 100ml Syrup</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
-    <t>Geminox 320mg Tablet - 8's</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Oradin Plus Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Osticare Tablet 24's</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Rupaday Oral Solution 60ml</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>60 ml</t>
-  </si>
-  <si>
-    <t>30's</t>
-  </si>
-  <si>
-    <t>50's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>100ml</t>
-  </si>
-  <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>36 's</t>
-  </si>
-  <si>
-    <t>8 's</t>
-  </si>
-  <si>
-    <t>4's</t>
-  </si>
-  <si>
-    <t>5 's</t>
-  </si>
-  <si>
-    <t>50 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>40 's</t>
-  </si>
-  <si>
-    <t>24's</t>
+    <t>Altadin</t>
+  </si>
+  <si>
+    <t>Betagan</t>
+  </si>
+  <si>
+    <t>Bimatol</t>
+  </si>
+  <si>
+    <t>Binzotim</t>
+  </si>
+  <si>
+    <t>Dextor OPT</t>
+  </si>
+  <si>
+    <t>Fluflam</t>
+  </si>
+  <si>
+    <t>Lotrel</t>
+  </si>
+  <si>
+    <t>Lumigan</t>
+  </si>
+  <si>
+    <t>Poly Pred</t>
+  </si>
+  <si>
+    <t>Pred OPT</t>
+  </si>
+  <si>
+    <t>Refresh Liquigel</t>
+  </si>
+  <si>
+    <t>Relestat</t>
+  </si>
+  <si>
+    <t>Zolopt</t>
+  </si>
+  <si>
+    <t>Zymar</t>
+  </si>
+  <si>
+    <t>Altadin 0.25% Ophthalmic Solution</t>
+  </si>
+  <si>
+    <t>Betagan 0.5% 5 ml</t>
+  </si>
+  <si>
+    <t>Bimatol 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
+    <t>Binzotim Ophthalmic Suspension 5ml</t>
+  </si>
+  <si>
+    <t>Dextor T Ophthalmic Suspension, 5ml</t>
+  </si>
+  <si>
+    <t>Fluflam 0.1% Opthalmic Suspension</t>
+  </si>
+  <si>
+    <t>Lotrel 0.5% Opthalmic Suspension</t>
+  </si>
+  <si>
+    <t>Lumigan 0.03% 3 ml</t>
+  </si>
+  <si>
+    <t>Poly Pred 5ml</t>
+  </si>
+  <si>
+    <t>PRED 5ml Ophthalmic Suspension</t>
+  </si>
+  <si>
+    <t>Refresh Liquigel 15ml</t>
+  </si>
+  <si>
+    <t>Relestat 5 ml</t>
+  </si>
+  <si>
+    <t>Zolopt Ophthalmic Suspension 5ml</t>
+  </si>
+  <si>
+    <t>Zymar 5ml</t>
   </si>
   <si>
     <t>1's</t>
   </si>
   <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>6's</t>
+    <t>5 ml.</t>
+  </si>
+  <si>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>5ml</t>
+  </si>
+  <si>
+    <t>15ml</t>
+  </si>
+  <si>
+    <t>5 ml</t>
   </si>
 </sst>
 </file>
@@ -572,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +513,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -606,15 +522,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -623,10 +539,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,424 +550,203 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,6 +31,9 @@
     <t>UOM</t>
   </si>
   <si>
+    <t>Alphagan</t>
+  </si>
+  <si>
     <t>Altadin</t>
   </si>
   <si>
@@ -49,12 +52,12 @@
     <t>Fluflam</t>
   </si>
   <si>
+    <t>Levomax OS</t>
+  </si>
+  <si>
     <t>Lotrel</t>
   </si>
   <si>
-    <t>Lumigan</t>
-  </si>
-  <si>
     <t>Poly Pred</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>Zymar</t>
   </si>
   <si>
+    <t>Alphagan P 5 ml</t>
+  </si>
+  <si>
     <t>Altadin 0.25% Ophthalmic Solution</t>
   </si>
   <si>
@@ -91,12 +97,12 @@
     <t>Fluflam 0.1% Opthalmic Suspension</t>
   </si>
   <si>
+    <t>Levomax 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
     <t>Lotrel 0.5% Opthalmic Suspension</t>
   </si>
   <si>
-    <t>Lumigan 0.03% 3 ml</t>
-  </si>
-  <si>
     <t>Poly Pred 5ml</t>
   </si>
   <si>
@@ -115,22 +121,19 @@
     <t>Zymar 5ml</t>
   </si>
   <si>
+    <t>5 ml</t>
+  </si>
+  <si>
     <t>1's</t>
   </si>
   <si>
     <t>5 ml.</t>
   </si>
   <si>
-    <t>3 ml</t>
-  </si>
-  <si>
     <t>5ml</t>
   </si>
   <si>
     <t>15ml</t>
-  </si>
-  <si>
-    <t>5 ml</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +516,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -522,15 +525,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -539,15 +542,15 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -556,15 +559,15 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -573,15 +576,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -590,15 +593,15 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -607,15 +610,15 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -624,15 +627,15 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -641,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -649,7 +652,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -658,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -666,7 +669,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -675,15 +678,15 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -692,15 +695,15 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -709,15 +712,15 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -726,15 +729,15 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -743,10 +746,27 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,106 +31,160 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>Altadin</t>
-  </si>
-  <si>
-    <t>Betagan</t>
-  </si>
-  <si>
-    <t>Bimatol</t>
-  </si>
-  <si>
-    <t>Binzotim</t>
-  </si>
-  <si>
-    <t>Dextor OPT</t>
-  </si>
-  <si>
-    <t>Fluflam</t>
-  </si>
-  <si>
-    <t>Lotrel</t>
-  </si>
-  <si>
-    <t>Lumigan</t>
-  </si>
-  <si>
-    <t>Poly Pred</t>
-  </si>
-  <si>
-    <t>Pred OPT</t>
-  </si>
-  <si>
-    <t>Refresh Liquigel</t>
-  </si>
-  <si>
-    <t>Relestat</t>
-  </si>
-  <si>
-    <t>Zolopt</t>
-  </si>
-  <si>
-    <t>Zymar</t>
-  </si>
-  <si>
-    <t>Altadin 0.25% Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Betagan 0.5% 5 ml</t>
-  </si>
-  <si>
-    <t>Bimatol 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Binzotim Ophthalmic Suspension 5ml</t>
-  </si>
-  <si>
-    <t>Dextor T Ophthalmic Suspension, 5ml</t>
-  </si>
-  <si>
-    <t>Fluflam 0.1% Opthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Lotrel 0.5% Opthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Lumigan 0.03% 3 ml</t>
-  </si>
-  <si>
-    <t>Poly Pred 5ml</t>
-  </si>
-  <si>
-    <t>PRED 5ml Ophthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Refresh Liquigel 15ml</t>
-  </si>
-  <si>
-    <t>Relestat 5 ml</t>
-  </si>
-  <si>
-    <t>Zolopt Ophthalmic Suspension 5ml</t>
-  </si>
-  <si>
-    <t>Zymar 5ml</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>5 ml.</t>
-  </si>
-  <si>
-    <t>3 ml</t>
-  </si>
-  <si>
-    <t>5ml</t>
-  </si>
-  <si>
-    <t>15ml</t>
-  </si>
-  <si>
-    <t>5 ml</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Cardobis</t>
+  </si>
+  <si>
+    <t>Cardon</t>
+  </si>
+  <si>
+    <t>Cardoneb</t>
+  </si>
+  <si>
+    <t>Cardovan</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>Edenil</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Noclog</t>
+  </si>
+  <si>
+    <t>Pivasta</t>
+  </si>
+  <si>
+    <t>Sidopin</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet - 24's</t>
+  </si>
+  <si>
+    <t>Cardobis 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoplus 50mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoplus 50mg Tablet</t>
+  </si>
+  <si>
+    <t>Cardoneb 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoneb 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 160mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Dialon 4mg Tablet</t>
+  </si>
+  <si>
+    <t>Edenil 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Edenil 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500</t>
+  </si>
+  <si>
+    <t>Lipicon 40mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet Container 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Noclog 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Noclog Plus 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Noclog 75mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Noclog Plus Tablet 30's</t>
+  </si>
+  <si>
+    <t>Pivasta 2mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sidoplus 50mg Tablet</t>
+  </si>
+  <si>
+    <t>Sitazid 50mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 100mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>30's</t>
+  </si>
+  <si>
+    <t>20 's</t>
+  </si>
+  <si>
+    <t>20'S</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>40 's</t>
   </si>
 </sst>
 </file>
@@ -488,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +567,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -525,7 +579,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -542,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -559,15 +613,15 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -576,15 +630,15 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -593,15 +647,15 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -610,15 +664,15 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -627,15 +681,15 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -644,15 +698,15 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -661,15 +715,15 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -678,15 +732,15 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -695,15 +749,15 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -712,15 +766,15 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -729,15 +783,15 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -746,7 +800,262 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,160 +31,142 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>Aldorin</t>
-  </si>
-  <si>
-    <t>Cardobis</t>
-  </si>
-  <si>
-    <t>Cardon</t>
-  </si>
-  <si>
-    <t>Cardoneb</t>
-  </si>
-  <si>
-    <t>Cardovan</t>
-  </si>
-  <si>
-    <t>Dialon</t>
-  </si>
-  <si>
-    <t>Edenil</t>
-  </si>
-  <si>
-    <t>GLIKAZID</t>
-  </si>
-  <si>
-    <t>Ligazid</t>
-  </si>
-  <si>
-    <t>Lipicon</t>
-  </si>
-  <si>
-    <t>Noclog</t>
-  </si>
-  <si>
-    <t>Pivasta</t>
-  </si>
-  <si>
-    <t>Sidopin</t>
-  </si>
-  <si>
-    <t>Sitazid</t>
-  </si>
-  <si>
-    <t>Aldorin 50mg Tablet - 24's</t>
-  </si>
-  <si>
-    <t>Cardobis 2.5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardoplus 50mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardoplus 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Cardoneb 5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardoneb 2.5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardovan 160mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardovan 80mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
-  </si>
-  <si>
-    <t>Dialon 4mg Tablet</t>
-  </si>
-  <si>
-    <t>Edenil 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Edenil 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Glikazid 80mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Ligazid 5mg Tablet 10's</t>
-  </si>
-  <si>
-    <t>Ligazid 5mg Tablet 20's</t>
-  </si>
-  <si>
-    <t>Ligazid M 2.5/500</t>
-  </si>
-  <si>
-    <t>Lipicon 40mg Tablet - 10's</t>
-  </si>
-  <si>
-    <t>Lipicon 10mg Tablet Container 30's</t>
-  </si>
-  <si>
-    <t>Lipicon 20mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Lipicon 10mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Noclog 75mg Tablet</t>
-  </si>
-  <si>
-    <t>Noclog Plus 75mg Tablet</t>
-  </si>
-  <si>
-    <t>Noclog 75mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Noclog Plus Tablet 30's</t>
-  </si>
-  <si>
-    <t>Pivasta 2mg Tablet 20's</t>
-  </si>
-  <si>
-    <t>Sidoplus 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Sitazid 50mg Tablet 20's</t>
-  </si>
-  <si>
-    <t>Sitazid 100mg Tablet 10's</t>
-  </si>
-  <si>
-    <t>24's</t>
+    <t>Esoral</t>
+  </si>
+  <si>
+    <t>Hairgrow</t>
+  </si>
+  <si>
+    <t>Losectil</t>
+  </si>
+  <si>
+    <t>Rabifast</t>
+  </si>
+  <si>
+    <t>Softi</t>
+  </si>
+  <si>
+    <t>Topiclo</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg EC Tablet - 42's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; MUPS 20</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Hairgrow 2% Topical Solution 60ml</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule (100's)</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
+    <t>Rabifast 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Softi Ointment 15gm</t>
+  </si>
+  <si>
+    <t>Topiclo S 6% 10gm Ointment</t>
+  </si>
+  <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>42's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
+    <t>60's</t>
+  </si>
+  <si>
+    <t>Bundle</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
-    <t>20'S</t>
-  </si>
-  <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>10's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>10 's</t>
-  </si>
-  <si>
-    <t>40 's</t>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>1's</t>
+  </si>
+  <si>
+    <t>100 's</t>
+  </si>
+  <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
+    <t>500's</t>
+  </si>
+  <si>
+    <t>15gm</t>
   </si>
 </sst>
 </file>
@@ -542,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +549,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -576,381 +558,381 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
@@ -958,104 +940,19 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
         <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -49,69 +49,69 @@
     <t>Topiclo</t>
   </si>
   <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
     <t>Esoral 20mg Tablet</t>
   </si>
   <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; MUPS 20</t>
+  </si>
+  <si>
     <t>Esoral 20mg Capsule 50's</t>
   </si>
   <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
     <t>Esoral 40mg EC Tablet - 42's</t>
   </si>
   <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; MUPS 20</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
     <t>Hairgrow 2% Topical Solution 60ml</t>
   </si>
   <si>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
     <t>Losectil 20mg Capsule (100's)</t>
   </si>
   <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
     <t>Rabifast 20mg Tablet - 50's</t>
   </si>
   <si>
@@ -121,49 +121,49 @@
     <t>Topiclo S 6% 10gm Ointment</t>
   </si>
   <si>
+    <t>Bundle</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
     <t>50's</t>
   </si>
   <si>
+    <t>80's</t>
+  </si>
+  <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>60's</t>
+  </si>
+  <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>42's</t>
   </si>
   <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>60's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>30's</t>
-  </si>
-  <si>
-    <t>100's</t>
-  </si>
-  <si>
     <t>1's</t>
   </si>
   <si>
+    <t>500's</t>
+  </si>
+  <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
     <t>100 's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>500's</t>
   </si>
   <si>
     <t>15gm</t>
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -731,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -816,7 +816,7 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -833,7 +833,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -850,7 +850,7 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -867,7 +867,7 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -918,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5">

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -49,69 +49,69 @@
     <t>Topiclo</t>
   </si>
   <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
     <t>Esoral Injection &amp; Capsule 20</t>
   </si>
   <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 40mg EC Tablet - 42's</t>
+  </si>
+  <si>
     <t>Esoral 20mg Tablet</t>
   </si>
   <si>
-    <t>Esoral 40mg Tablet</t>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 60's</t>
   </si>
   <si>
     <t>Esoral Injection &amp; MUPS 20</t>
   </si>
   <si>
-    <t>Esoral 20mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg EC Tablet - 42's</t>
-  </si>
-  <si>
     <t>Hairgrow 2% Topical Solution 60ml</t>
   </si>
   <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule (100's)</t>
+  </si>
+  <si>
     <t>Losectil 20mg Capsule 500s</t>
   </si>
   <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule (100's)</t>
-  </si>
-  <si>
     <t>Rabifast 20mg Tablet - 50's</t>
   </si>
   <si>
@@ -121,16 +121,22 @@
     <t>Topiclo S 6% 10gm Ointment</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
     <t>Bundle</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
-    <t>80's</t>
+    <t>42's</t>
   </si>
   <si>
     <t>100's</t>
@@ -139,31 +145,25 @@
     <t>60's</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
-    <t>42's</t>
-  </si>
-  <si>
     <t>1's</t>
   </si>
   <si>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
+    <t>100 's</t>
+  </si>
+  <si>
     <t>500's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>100 's</t>
   </si>
   <si>
     <t>15gm</t>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -595,12 +595,12 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -612,12 +612,12 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -629,12 +629,12 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -646,12 +646,12 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -663,12 +663,12 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -697,12 +697,12 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -714,12 +714,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -731,12 +731,12 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -782,12 +782,12 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -799,12 +799,12 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -816,12 +816,12 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -833,12 +833,12 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -850,12 +850,12 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -867,12 +867,12 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -918,12 +918,12 @@
         <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>

--- a/Data/yesterday_no_sales.xlsx
+++ b/Data/yesterday_no_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,142 +31,127 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>Esoral</t>
-  </si>
-  <si>
-    <t>Hairgrow</t>
-  </si>
-  <si>
-    <t>Losectil</t>
-  </si>
-  <si>
-    <t>Rabifast</t>
-  </si>
-  <si>
-    <t>Softi</t>
-  </si>
-  <si>
-    <t>Topiclo</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 40mg EC Tablet - 42's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; MUPS 20</t>
-  </si>
-  <si>
-    <t>Hairgrow 2% Topical Solution 60ml</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule (100's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
-    <t>Rabifast 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Softi Ointment 15gm</t>
-  </si>
-  <si>
-    <t>Topiclo S 6% 10gm Ointment</t>
-  </si>
-  <si>
-    <t>50's</t>
-  </si>
-  <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Cardoneb</t>
+  </si>
+  <si>
+    <t>Cardovan</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Irbes</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Noficon</t>
+  </si>
+  <si>
+    <t>Pivasta</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet - 24's</t>
+  </si>
+  <si>
+    <t>Cardoneb 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoneb 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 160mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Dialon 4mg Tablet</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Irbes 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet Container 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 40mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Noficon 200mg Capsule</t>
+  </si>
+  <si>
+    <t>Pivasta 2mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 50mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 100mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>24's</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
+    <t>20'S</t>
+  </si>
+  <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>42's</t>
-  </si>
-  <si>
-    <t>100's</t>
-  </si>
-  <si>
-    <t>60's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>100 's</t>
-  </si>
-  <si>
-    <t>500's</t>
-  </si>
-  <si>
-    <t>15gm</t>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>20 's</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>40 's</t>
   </si>
 </sst>
 </file>
@@ -524,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +534,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -558,58 +543,58 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -617,67 +602,67 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -685,274 +670,223 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>143</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>165</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
